--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>21115030</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>21115030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,17 +471,21 @@
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21115024</t>
+          <t>21115021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21115024</t>
+          <t>21115021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +502,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21115086</t>
+          <t>21115024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21115086</t>
+          <t>21115024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -520,12 +524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21115024</t>
+          <t>21115086</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21115024</t>
+          <t>21115086</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -542,12 +546,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21115038</t>
+          <t>21115080</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21115038</t>
+          <t>21115080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -560,104 +564,6 @@
           <t>P</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21115030</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>21115030</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>21115038</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>21115038</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
